--- a/client/result.xlsx
+++ b/client/result.xlsx
@@ -529,10 +529,10 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="4" defaultRowHeight="20.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.5" defaultRowHeight="20.5" customHeight="1"/>
   <sheetData>
     <row r="1"/>
     <row r="2" ht="20.5" customHeight="1">
@@ -562,17 +562,17 @@
     <row r="5" ht="20.5" customHeight="1">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>刘松蕴</t>
+          <t>王浚安</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>刘雨潇</t>
+          <t>宿若熙</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>南景皓</t>
+          <t>刘云浩</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -582,12 +582,12 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>胡陌桐</t>
+          <t>杨子琮</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>金辰晓</t>
+          <t>高晓洲</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -599,33 +599,29 @@
     <row r="6" ht="20.5" customHeight="1">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>王子晨</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>王浚安</t>
+          <t>毕修齐</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>胡景哲</t>
+          <t>刘松蕴</t>
         </is>
       </c>
       <c r="F6" s="1" t="n"/>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>徐赫祥</t>
+          <t>刘伯正</t>
         </is>
       </c>
       <c r="I6" s="1" t="n"/>
     </row>
     <row r="7" ht="20.5" customHeight="1">
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>王嘉琪</t>
-        </is>
-      </c>
+      <c r="B7" s="5" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
@@ -635,42 +631,42 @@
     <row r="9" ht="20.5" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>杨子琮</t>
+          <t>徐紫轩</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>徐紫轩</t>
+          <t>金辰晓</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>高晓洲</t>
+          <t>史泽太</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>史泽太</t>
+          <t>徐赫祥</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>崔瑞镝</t>
+          <t>廖奕萱</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
+          <t>刘雨潇</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
           <t>穆辰睿</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>杨沅坤</t>
-        </is>
-      </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>廖奕萱</t>
+          <t>胡景哲</t>
         </is>
       </c>
     </row>
@@ -682,7 +678,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>刘伯正</t>
+          <t>崔瑞镝</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -696,29 +692,29 @@
     <row r="12" ht="20.5" customHeight="1">
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>毕修齐</t>
+          <t>杨沅坤</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
+          <t>胡陌桐</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
           <t>易泊含</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>刘云浩</t>
-        </is>
-      </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>宿若熙</t>
+          <t>王嘉琪</t>
         </is>
       </c>
     </row>
     <row r="13" ht="20.5" customHeight="1">
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>马一宁</t>
+          <t>南景皓</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -735,7 +731,7 @@
       <c r="H13" s="8" t="n"/>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>王子晨</t>
+          <t>马一宁</t>
         </is>
       </c>
     </row>
@@ -745,11 +741,7 @@
       <c r="E14" s="10" t="n"/>
       <c r="G14" s="9" t="n"/>
       <c r="H14" s="10" t="n"/>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>b2</t>
-        </is>
-      </c>
+      <c r="I14" s="1" t="n"/>
     </row>
     <row r="15" ht="20.5" customHeight="1">
       <c r="D15" s="1" t="n"/>
